--- a/Anexo/Pregunta1.xlsx
+++ b/Anexo/Pregunta1.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Escritorio\PRUEBA MINERÍA\Anexo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644652C9-F312-4927-BB97-5C369B48F261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D7D083-22CD-4C5E-8463-5712F88FA176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{17D1F6F3-2A53-433A-82E2-56B2B12CBB48}"/>
   </bookViews>
   <sheets>
     <sheet name="Pregunta 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Pregunta 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Pregunta 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -359,8 +357,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>602762</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>185327</xdr:rowOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>6033</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -695,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9EB1209-9D11-4461-B3BB-5993CEAF37FE}">
   <dimension ref="C4:M79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,28 +831,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE34A59A-2EEB-43EC-A0EE-5385F167DC49}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291DD662-2B85-449C-8DD7-61A34125277A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>